--- a/Server/server_config.xlsx
+++ b/Server/server_config.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nju30\IdeaProjects\PTAssist\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067B0AB4-9F6E-4A57-8DD1-EA5A9C380E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F513A67E-5A6B-4788-9E7A-EA2C4FA7CA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3000" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="375" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="服务端配置" sheetId="6" r:id="rId1"/>
     <sheet name="赛题信息" sheetId="2" r:id="rId2"/>
-    <sheet name="队员信息" sheetId="3" r:id="rId3"/>
+    <sheet name="队伍信息" sheetId="3" r:id="rId3"/>
     <sheet name="裁判信息" sheetId="4" r:id="rId4"/>
     <sheet name="学校信息" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -204,9 +204,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -575,7 +578,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA25D3D-2E16-4561-94E8-4E0174E6898C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,9 +653,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -683,6 +688,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -692,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5C2595-8F24-4C1D-B38A-7F5DEEB791F9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Server/server_config.xlsx
+++ b/Server/server_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nju30\IdeaProjects\PTAssist\Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80605\IdeaProjects\PTAssist\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F513A67E-5A6B-4788-9E7A-EA2C4FA7CA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250D42D5-E504-4A3C-B2A1-836B23F994D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="375" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15465" yWindow="5010" windowWidth="21600" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="服务端配置" sheetId="6" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F5A1A0-5AC2-4C32-892F-6DFE43CA23EE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA25D3D-2E16-4561-94E8-4E0174E6898C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/Server/server_config.xlsx
+++ b/Server/server_config.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nju30\IdeaProjects\PTAssist\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F513A67E-5A6B-4788-9E7A-EA2C4FA7CA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA5E5BD-D6BA-4A41-91EE-76DA0B1D4A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="375" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="3450" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="服务端配置" sheetId="6" r:id="rId1"/>
+    <sheet name="软件配置" sheetId="6" r:id="rId1"/>
     <sheet name="赛题信息" sheetId="2" r:id="rId2"/>
     <sheet name="队伍信息" sheetId="3" r:id="rId3"/>
     <sheet name="裁判信息" sheetId="4" r:id="rId4"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>端口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正方分数权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反方分数权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评方分数权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F5A1A0-5AC2-4C32-892F-6DFE43CA23EE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,6 +535,30 @@
       </c>
       <c r="B3">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -643,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA25D3D-2E16-4561-94E8-4E0174E6898C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/Server/server_config.xlsx
+++ b/Server/server_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nju30\IdeaProjects\PTAssist\Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80605\IdeaProjects\PTAssist\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA5E5BD-D6BA-4A41-91EE-76DA0B1D4A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402CCED1-C5C2-43C9-992E-E230D653E69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="3450" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12660" yWindow="4140" windowWidth="21600" windowHeight="9435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="软件配置" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>裁判2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裁判3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -504,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F5A1A0-5AC2-4C32-892F-6DFE43CA23EE}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,7 +511,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>7890</v>
@@ -523,7 +519,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -531,7 +527,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -539,7 +535,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -547,7 +543,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -555,7 +551,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -679,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA25D3D-2E16-4561-94E8-4E0174E6898C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,22 +701,19 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -729,6 +722,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -744,7 +738,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -763,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Server/server_config.xlsx
+++ b/Server/server_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80605\IdeaProjects\PTAssist\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402CCED1-C5C2-43C9-992E-E230D653E69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE8729-451E-4669-A886-DA4C7585611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="4140" windowWidth="21600" windowHeight="9435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="6045" windowWidth="21600" windowHeight="9435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="软件配置" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>评方分数权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啦啦啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +619,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B276EB-610C-4B53-8021-4ACA4542138E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,6 +673,29 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -675,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA25D3D-2E16-4561-94E8-4E0174E6898C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/Server/server_config.xlsx
+++ b/Server/server_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80605\IdeaProjects\PTAssist\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE8729-451E-4669-A886-DA4C7585611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A71A1F1-AFCD-4816-9504-CF1A40AFB744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="6045" windowWidth="21600" windowHeight="9435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="7590" windowWidth="21600" windowHeight="9435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="软件配置" sheetId="6" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>

--- a/Server/server_config.xlsx
+++ b/Server/server_config.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80605\IdeaProjects\PTAssist\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A71A1F1-AFCD-4816-9504-CF1A40AFB744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0076998-4040-4A32-9C5B-7CE491A2AABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="7590" windowWidth="21600" windowHeight="9435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="4605" windowWidth="21600" windowHeight="9435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="软件配置" sheetId="6" r:id="rId1"/>
     <sheet name="赛题信息" sheetId="2" r:id="rId2"/>
     <sheet name="队伍信息" sheetId="3" r:id="rId3"/>
     <sheet name="裁判信息" sheetId="4" r:id="rId4"/>
-    <sheet name="学校信息" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会场总个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +155,10 @@
   </si>
   <si>
     <t>阿四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我来发明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +522,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>7890</v>
@@ -531,7 +530,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -539,7 +538,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -547,7 +546,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -555,7 +554,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -563,7 +562,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -578,10 +577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3D0B3B-20F8-4CBB-82EF-126CFAF56568}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -608,6 +607,14 @@
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +629,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,19 +688,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -711,7 +718,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,44 +766,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5C2595-8F24-4C1D-B38A-7F5DEEB791F9}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Server/server_config.xlsx
+++ b/Server/server_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80605\IdeaProjects\PTAssist\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0076998-4040-4A32-9C5B-7CE491A2AABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727C4D1D-2DB4-42CC-AE94-8D928FD65725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="4605" windowWidth="21600" windowHeight="9435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="软件配置" sheetId="6" r:id="rId1"/>
@@ -580,7 +580,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -628,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B276EB-610C-4B53-8021-4ACA4542138E}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA25D3D-2E16-4561-94E8-4E0174E6898C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Server/server_config.xlsx
+++ b/Server/server_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80605\IdeaProjects\PTAssist\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727C4D1D-2DB4-42CC-AE94-8D928FD65725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B4CA5-A387-4343-9096-B4F00F5EF45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16110" yWindow="2070" windowWidth="21600" windowHeight="9435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="软件配置" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="43">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,46 @@
   </si>
   <si>
     <t>我来发明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东京大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复旦大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东华大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +552,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -541,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -626,10 +666,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B276EB-610C-4B53-8021-4ACA4542138E}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,6 +746,305 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -715,15 +1054,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA25D3D-2E16-4561-94E8-4E0174E6898C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -733,7 +1072,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -744,7 +1083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -756,6 +1095,108 @@
       </c>
       <c r="D3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
